--- a/Data/Sales_and_Stock.xlsx
+++ b/Data/Sales_and_Stock.xlsx
@@ -244,10 +244,10 @@
     <t>Freshtear 10ml Ophthalmic Solution</t>
   </si>
   <si>
+    <t>Levomax TS 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
     <t>Levomax 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Levomax TS 5ml Ophthalmic Solution</t>
   </si>
   <si>
     <t>Lumigan 0.03% 3 ml</t>
@@ -849,7 +849,7 @@
         <v>87</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -858,28 +858,28 @@
         <v>965</v>
       </c>
       <c r="I2">
-        <v>435</v>
+        <v>560</v>
       </c>
       <c r="J2">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="N2">
         <v>68</v>
       </c>
       <c r="O2">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="P2">
-        <v>4839</v>
+        <v>4792</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.21978</v>
+        <v>0.208791</v>
       </c>
       <c r="T2">
         <v>0.07692300000000001</v>
@@ -897,43 +897,43 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>4839</v>
+        <v>4792</v>
       </c>
       <c r="W2">
         <v>102</v>
       </c>
       <c r="X2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AB2">
         <v>61</v>
       </c>
       <c r="AC2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AD2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AE2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG2">
         <v>236</v>
       </c>
       <c r="AH2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AI2">
         <v>294</v>
@@ -942,28 +942,28 @@
         <v>159</v>
       </c>
       <c r="AK2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AM2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AN2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AP2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AQ2">
         <v>208</v>
       </c>
       <c r="AR2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AS2">
         <v>139</v>
@@ -975,31 +975,31 @@
         <v>267</v>
       </c>
       <c r="AV2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW2">
         <v>196</v>
       </c>
       <c r="AX2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AY2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AZ2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="BA2">
-        <v>30015</v>
+        <v>32571</v>
       </c>
       <c r="BB2">
         <v>82.45999999999999</v>
       </c>
       <c r="BC2">
-        <v>1814.12</v>
+        <v>329.84</v>
       </c>
       <c r="BD2">
-        <v>1814.12</v>
+        <v>329.84</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>87</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1031,25 +1031,25 @@
         <v>293</v>
       </c>
       <c r="I3">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>2720</v>
+        <v>2713</v>
       </c>
       <c r="W3">
         <v>31</v>
@@ -1097,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="AE3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF3">
         <v>28</v>
@@ -1121,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="AM3">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="AN3">
         <v>120</v>
@@ -1157,22 +1157,22 @@
         <v>94</v>
       </c>
       <c r="AY3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AZ3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BA3">
-        <v>20390</v>
+        <v>22481</v>
       </c>
       <c r="BB3">
         <v>522.83</v>
       </c>
       <c r="BC3">
-        <v>1568.49</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1568.49</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>88</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1204,25 +1204,25 @@
         <v>374</v>
       </c>
       <c r="I4">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="J4">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K4">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M4">
+        <v>233</v>
+      </c>
+      <c r="N4">
+        <v>62</v>
+      </c>
+      <c r="O4">
         <v>246</v>
-      </c>
-      <c r="N4">
-        <v>65</v>
-      </c>
-      <c r="O4">
-        <v>266</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1119</v>
+        <v>1093</v>
       </c>
       <c r="W4">
         <v>32</v>
       </c>
       <c r="X4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4">
         <v>19</v>
@@ -1264,13 +1264,13 @@
         <v>31</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD4">
         <v>4</v>
       </c>
       <c r="AE4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF4">
         <v>4</v>
@@ -1291,19 +1291,19 @@
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM4">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="AN4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO4">
         <v>20</v>
       </c>
       <c r="AP4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ4">
         <v>30</v>
@@ -1312,7 +1312,7 @@
         <v>60</v>
       </c>
       <c r="AS4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT4">
         <v>10</v>
@@ -1330,22 +1330,22 @@
         <v>100</v>
       </c>
       <c r="AY4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ4">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="BA4">
-        <v>54941</v>
+        <v>65593</v>
       </c>
       <c r="BB4">
         <v>560.63</v>
       </c>
       <c r="BC4">
-        <v>4485.04</v>
+        <v>560.63</v>
       </c>
       <c r="BD4">
-        <v>4485.04</v>
+        <v>560.63</v>
       </c>
       <c r="BE4">
         <v>0</v>
@@ -1368,37 +1368,37 @@
         <v>87</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>977</v>
       </c>
       <c r="I5">
-        <v>441</v>
+        <v>567</v>
       </c>
       <c r="J5">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="K5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="N5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O5">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="P5">
-        <v>856</v>
+        <v>808</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>0.307692</v>
       </c>
       <c r="T5">
-        <v>0.538461</v>
+        <v>0.582417</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>856</v>
+        <v>808</v>
       </c>
       <c r="W5">
         <v>38</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z5">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="AC5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD5">
         <v>33</v>
@@ -1452,10 +1452,10 @@
         <v>19</v>
       </c>
       <c r="AH5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1467,34 +1467,34 @@
         <v>21</v>
       </c>
       <c r="AM5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AN5">
         <v>39</v>
       </c>
       <c r="AO5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AP5">
         <v>47</v>
       </c>
       <c r="AQ5">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AR5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS5">
         <v>34</v>
       </c>
       <c r="AT5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU5">
         <v>57</v>
       </c>
       <c r="AV5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AW5">
         <v>42</v>
@@ -1506,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="BA5">
-        <v>11648</v>
+        <v>13222</v>
       </c>
       <c r="BB5">
         <v>52.47</v>
       </c>
       <c r="BC5">
-        <v>1311.75</v>
+        <v>524.7</v>
       </c>
       <c r="BD5">
-        <v>1311.75</v>
+        <v>524.7</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -1541,37 +1541,37 @@
         <v>89</v>
       </c>
       <c r="F6">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G6">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6">
         <v>5520</v>
       </c>
       <c r="I6">
-        <v>2492</v>
+        <v>3205</v>
       </c>
       <c r="J6">
-        <v>1879</v>
+        <v>2304</v>
       </c>
       <c r="K6">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>5168</v>
+        <v>5093</v>
       </c>
       <c r="N6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O6">
-        <v>3641</v>
+        <v>3216</v>
       </c>
       <c r="P6">
-        <v>7078</v>
+        <v>6602</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1580,118 +1580,118 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>6.890109</v>
+        <v>7.098901</v>
       </c>
       <c r="T6">
-        <v>4.120879</v>
+        <v>4.428571</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>7078</v>
+        <v>6602</v>
       </c>
       <c r="W6">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="X6">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="Y6">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="Z6">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AA6">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AB6">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AC6">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD6">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE6">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AF6">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG6">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AH6">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="AI6">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AJ6">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AK6">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AL6">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AM6">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="AN6">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="AO6">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AP6">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="AQ6">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AR6">
+        <v>239</v>
+      </c>
+      <c r="AS6">
+        <v>270</v>
+      </c>
+      <c r="AT6">
+        <v>159</v>
+      </c>
+      <c r="AU6">
+        <v>167</v>
+      </c>
+      <c r="AV6">
         <v>248</v>
       </c>
-      <c r="AS6">
-        <v>272</v>
-      </c>
-      <c r="AT6">
-        <v>160</v>
-      </c>
-      <c r="AU6">
-        <v>181</v>
-      </c>
-      <c r="AV6">
-        <v>264</v>
-      </c>
       <c r="AW6">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AX6">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AY6">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AZ6">
-        <v>1977</v>
+        <v>2341</v>
       </c>
       <c r="BA6">
-        <v>296411</v>
+        <v>350986</v>
       </c>
       <c r="BB6">
         <v>149.93</v>
       </c>
       <c r="BC6">
-        <v>17241.95</v>
+        <v>9295.66</v>
       </c>
       <c r="BD6">
-        <v>17241.95</v>
+        <v>9295.66</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -1711,160 +1711,160 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>980</v>
+      </c>
+      <c r="I7">
+        <v>569</v>
+      </c>
+      <c r="J7">
+        <v>340</v>
+      </c>
+      <c r="K7">
+        <v>59</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>860</v>
+      </c>
+      <c r="N7">
         <v>87</v>
       </c>
-      <c r="F7">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>986</v>
-      </c>
-      <c r="I7">
-        <v>445</v>
-      </c>
-      <c r="J7">
-        <v>178</v>
-      </c>
-      <c r="K7">
+      <c r="O7">
+        <v>640</v>
+      </c>
+      <c r="P7">
+        <v>2338</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.131868</v>
+      </c>
+      <c r="T7">
+        <v>9.076923000000001</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2338</v>
+      </c>
+      <c r="W7">
+        <v>27</v>
+      </c>
+      <c r="X7">
+        <v>102</v>
+      </c>
+      <c r="Y7">
+        <v>60</v>
+      </c>
+      <c r="Z7">
+        <v>129</v>
+      </c>
+      <c r="AA7">
+        <v>22</v>
+      </c>
+      <c r="AB7">
+        <v>57</v>
+      </c>
+      <c r="AC7">
+        <v>69</v>
+      </c>
+      <c r="AD7">
+        <v>37</v>
+      </c>
+      <c r="AE7">
+        <v>67</v>
+      </c>
+      <c r="AF7">
         <v>39</v>
       </c>
-      <c r="L7">
-        <v>18</v>
-      </c>
-      <c r="M7">
-        <v>473</v>
-      </c>
-      <c r="N7">
-        <v>48</v>
-      </c>
-      <c r="O7">
-        <v>808</v>
-      </c>
-      <c r="P7">
-        <v>3034</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.450549</v>
-      </c>
-      <c r="T7">
-        <v>0.296703</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>3034</v>
-      </c>
-      <c r="W7">
-        <v>33</v>
-      </c>
-      <c r="X7">
-        <v>28</v>
-      </c>
-      <c r="Y7">
-        <v>118</v>
-      </c>
-      <c r="Z7">
-        <v>69</v>
-      </c>
-      <c r="AA7">
-        <v>97</v>
-      </c>
-      <c r="AB7">
-        <v>73</v>
-      </c>
-      <c r="AC7">
-        <v>68</v>
-      </c>
-      <c r="AD7">
-        <v>123</v>
-      </c>
-      <c r="AE7">
-        <v>99</v>
-      </c>
-      <c r="AF7">
-        <v>93</v>
-      </c>
       <c r="AG7">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="AH7">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="AI7">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="AJ7">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="AK7">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AL7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AM7">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="AN7">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AO7">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="AP7">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="AQ7">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AR7">
+        <v>134</v>
+      </c>
+      <c r="AS7">
+        <v>53</v>
+      </c>
+      <c r="AT7">
+        <v>25</v>
+      </c>
+      <c r="AU7">
+        <v>137</v>
+      </c>
+      <c r="AV7">
+        <v>78</v>
+      </c>
+      <c r="AW7">
+        <v>27</v>
+      </c>
+      <c r="AX7">
         <v>64</v>
       </c>
-      <c r="AS7">
-        <v>79</v>
-      </c>
-      <c r="AT7">
-        <v>125</v>
-      </c>
-      <c r="AU7">
-        <v>84</v>
-      </c>
-      <c r="AV7">
-        <v>57</v>
-      </c>
-      <c r="AW7">
-        <v>37</v>
-      </c>
-      <c r="AX7">
-        <v>57</v>
-      </c>
       <c r="AY7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="BA7">
-        <v>10390</v>
+        <v>32743</v>
       </c>
       <c r="BB7">
-        <v>67.47</v>
+        <v>97.45</v>
       </c>
       <c r="BC7">
-        <v>2293.98</v>
+        <v>584.7</v>
       </c>
       <c r="BD7">
-        <v>2293.98</v>
+        <v>584.7</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -1884,160 +1884,160 @@
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>986</v>
+      </c>
+      <c r="I8">
+        <v>572</v>
+      </c>
+      <c r="J8">
+        <v>217</v>
+      </c>
+      <c r="K8">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>473</v>
+      </c>
+      <c r="N8">
+        <v>48</v>
+      </c>
+      <c r="O8">
+        <v>769</v>
+      </c>
+      <c r="P8">
+        <v>2957</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.43956</v>
+      </c>
+      <c r="T8">
+        <v>0.351648</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>2957</v>
+      </c>
+      <c r="W8">
         <v>28</v>
       </c>
-      <c r="H8">
-        <v>980</v>
-      </c>
-      <c r="I8">
-        <v>442</v>
-      </c>
-      <c r="J8">
-        <v>307</v>
-      </c>
-      <c r="K8">
+      <c r="X8">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>106</v>
+      </c>
+      <c r="Z8">
         <v>69</v>
       </c>
-      <c r="L8">
-        <v>31</v>
-      </c>
-      <c r="M8">
-        <v>874</v>
-      </c>
-      <c r="N8">
-        <v>89</v>
-      </c>
-      <c r="O8">
-        <v>673</v>
-      </c>
-      <c r="P8">
-        <v>2378</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0.142857</v>
-      </c>
-      <c r="T8">
-        <v>9.285714</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>2378</v>
-      </c>
-      <c r="W8">
-        <v>27</v>
-      </c>
-      <c r="X8">
-        <v>104</v>
-      </c>
-      <c r="Y8">
-        <v>71</v>
-      </c>
-      <c r="Z8">
-        <v>129</v>
-      </c>
       <c r="AA8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="AB8">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AC8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AD8">
+        <v>123</v>
+      </c>
+      <c r="AE8">
+        <v>96</v>
+      </c>
+      <c r="AF8">
+        <v>93</v>
+      </c>
+      <c r="AG8">
+        <v>145</v>
+      </c>
+      <c r="AH8">
+        <v>141</v>
+      </c>
+      <c r="AI8">
+        <v>318</v>
+      </c>
+      <c r="AJ8">
+        <v>119</v>
+      </c>
+      <c r="AK8">
+        <v>35</v>
+      </c>
+      <c r="AL8">
+        <v>69</v>
+      </c>
+      <c r="AM8">
+        <v>84</v>
+      </c>
+      <c r="AN8">
+        <v>144</v>
+      </c>
+      <c r="AO8">
+        <v>124</v>
+      </c>
+      <c r="AP8">
+        <v>130</v>
+      </c>
+      <c r="AQ8">
+        <v>58</v>
+      </c>
+      <c r="AR8">
+        <v>61</v>
+      </c>
+      <c r="AS8">
+        <v>77</v>
+      </c>
+      <c r="AT8">
+        <v>125</v>
+      </c>
+      <c r="AU8">
+        <v>83</v>
+      </c>
+      <c r="AV8">
+        <v>56</v>
+      </c>
+      <c r="AW8">
         <v>37</v>
       </c>
-      <c r="AE8">
-        <v>70</v>
-      </c>
-      <c r="AF8">
-        <v>39</v>
-      </c>
-      <c r="AG8">
-        <v>93</v>
-      </c>
-      <c r="AH8">
-        <v>40</v>
-      </c>
-      <c r="AI8">
-        <v>55</v>
-      </c>
-      <c r="AJ8">
-        <v>32</v>
-      </c>
-      <c r="AK8">
-        <v>105</v>
-      </c>
-      <c r="AL8">
-        <v>79</v>
-      </c>
-      <c r="AM8">
-        <v>132</v>
-      </c>
-      <c r="AN8">
-        <v>103</v>
-      </c>
-      <c r="AO8">
-        <v>64</v>
-      </c>
-      <c r="AP8">
-        <v>212</v>
-      </c>
-      <c r="AQ8">
-        <v>89</v>
-      </c>
-      <c r="AR8">
-        <v>136</v>
-      </c>
-      <c r="AS8">
-        <v>53</v>
-      </c>
-      <c r="AT8">
-        <v>25</v>
-      </c>
-      <c r="AU8">
-        <v>139</v>
-      </c>
-      <c r="AV8">
-        <v>79</v>
-      </c>
-      <c r="AW8">
-        <v>27</v>
-      </c>
       <c r="AX8">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AZ8">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="BA8">
-        <v>29235</v>
+        <v>14033</v>
       </c>
       <c r="BB8">
-        <v>97.45</v>
+        <v>67.47</v>
       </c>
       <c r="BC8">
-        <v>1266.85</v>
+        <v>-404.82</v>
       </c>
       <c r="BD8">
-        <v>1266.85</v>
+        <v>-404.82</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>91</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2069,46 +2069,46 @@
         <v>94</v>
       </c>
       <c r="I9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J9">
+        <v>66</v>
+      </c>
+      <c r="K9">
+        <v>120</v>
+      </c>
+      <c r="L9">
+        <v>70</v>
+      </c>
+      <c r="M9">
+        <v>234</v>
+      </c>
+      <c r="N9">
+        <v>249</v>
+      </c>
+      <c r="O9">
+        <v>28</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>62</v>
-      </c>
-      <c r="K9">
-        <v>146</v>
-      </c>
-      <c r="L9">
-        <v>65</v>
-      </c>
-      <c r="M9">
-        <v>244</v>
-      </c>
-      <c r="N9">
-        <v>259</v>
-      </c>
-      <c r="O9">
-        <v>32</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>65</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>4</v>
@@ -2156,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="AL9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ9">
         <v>10</v>
@@ -2198,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="BA9">
-        <v>112004</v>
+        <v>128445</v>
       </c>
       <c r="BB9">
         <v>1027.56</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1027.56</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1027.56</v>
       </c>
       <c r="BE9">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0.087912</v>
       </c>
       <c r="T10">
-        <v>0.461538</v>
+        <v>0.450549</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2406,34 +2406,34 @@
         <v>92</v>
       </c>
       <c r="F11">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="G11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H11">
         <v>11300</v>
       </c>
       <c r="I11">
-        <v>5103</v>
+        <v>6561</v>
       </c>
       <c r="J11">
-        <v>2546</v>
+        <v>3104</v>
       </c>
       <c r="K11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>7006</v>
+        <v>6913</v>
       </c>
       <c r="N11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O11">
-        <v>8754</v>
+        <v>8196</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2445,118 +2445,118 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>6.725274</v>
+        <v>6.802197</v>
       </c>
       <c r="T11">
-        <v>3.186813</v>
+        <v>3.153846</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>85465</v>
+        <v>84794</v>
       </c>
       <c r="W11">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="X11">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="Y11">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="Z11">
         <v>857</v>
       </c>
       <c r="AA11">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="AB11">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="AC11">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AD11">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="AE11">
-        <v>1009</v>
+        <v>943</v>
       </c>
       <c r="AF11">
         <v>511</v>
       </c>
       <c r="AG11">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AH11">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="AI11">
-        <v>1360</v>
+        <v>1330</v>
       </c>
       <c r="AJ11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK11">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AL11">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="AM11">
-        <v>52508</v>
+        <v>52324</v>
       </c>
       <c r="AN11">
-        <v>5123</v>
+        <v>5085</v>
       </c>
       <c r="AO11">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AP11">
-        <v>4351</v>
+        <v>4207</v>
       </c>
       <c r="AQ11">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AR11">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="AS11">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="AT11">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="AU11">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="AV11">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="AW11">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AX11">
         <v>1544</v>
       </c>
       <c r="AY11">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="AZ11">
-        <v>2603</v>
+        <v>3213</v>
       </c>
       <c r="BA11">
-        <v>614880</v>
+        <v>758974</v>
       </c>
       <c r="BB11">
         <v>236.22</v>
       </c>
       <c r="BC11">
-        <v>50787.3</v>
+        <v>22677.12</v>
       </c>
       <c r="BD11">
-        <v>50787.3</v>
+        <v>22677.12</v>
       </c>
       <c r="BE11">
         <v>0</v>
@@ -2588,13 +2588,13 @@
         <v>197</v>
       </c>
       <c r="I12">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>23</v>
       </c>
       <c r="AZ12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA12">
-        <v>796</v>
+        <v>1326</v>
       </c>
       <c r="BB12">
         <v>265.35</v>
@@ -2752,37 +2752,37 @@
         <v>90</v>
       </c>
       <c r="F13">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>959</v>
       </c>
       <c r="I13">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="J13">
-        <v>402</v>
+        <v>614</v>
       </c>
       <c r="K13">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="N13">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O13">
-        <v>557</v>
+        <v>345</v>
       </c>
       <c r="P13">
-        <v>4666</v>
+        <v>4378</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0.054945</v>
       </c>
       <c r="T13">
-        <v>0.76923</v>
+        <v>0.780219</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>4666</v>
+        <v>4378</v>
       </c>
       <c r="W13">
         <v>143</v>
       </c>
       <c r="X13">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y13">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Z13">
         <v>202</v>
@@ -2824,22 +2824,22 @@
         <v>163</v>
       </c>
       <c r="AD13">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE13">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AF13">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG13">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AH13">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="AI13">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ13">
         <v>65</v>
@@ -2848,40 +2848,40 @@
         <v>143</v>
       </c>
       <c r="AL13">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AM13">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="AN13">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="AO13">
         <v>107</v>
       </c>
       <c r="AP13">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AQ13">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AR13">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AS13">
         <v>152</v>
       </c>
       <c r="AT13">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AU13">
         <v>166</v>
       </c>
       <c r="AV13">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AW13">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AX13">
         <v>93</v>
@@ -2890,19 +2890,19 @@
         <v>101</v>
       </c>
       <c r="AZ13">
-        <v>414</v>
+        <v>723</v>
       </c>
       <c r="BA13">
-        <v>27932</v>
+        <v>48780</v>
       </c>
       <c r="BB13">
         <v>67.47</v>
       </c>
       <c r="BC13">
-        <v>5937.36</v>
+        <v>809.64</v>
       </c>
       <c r="BD13">
-        <v>5937.36</v>
+        <v>809.64</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -2925,37 +2925,37 @@
         <v>87</v>
       </c>
       <c r="F14">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14">
         <v>946</v>
       </c>
       <c r="I14">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="J14">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="K14">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="N14">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O14">
-        <v>750</v>
+        <v>681</v>
       </c>
       <c r="P14">
-        <v>4096</v>
+        <v>4019</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2973,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>4096</v>
+        <v>4019</v>
       </c>
       <c r="W14">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X14">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Y14">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z14">
         <v>159</v>
@@ -3000,16 +3000,16 @@
         <v>30</v>
       </c>
       <c r="AE14">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF14">
         <v>182</v>
       </c>
       <c r="AG14">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AH14">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AI14">
         <v>301</v>
@@ -3021,10 +3021,10 @@
         <v>80</v>
       </c>
       <c r="AL14">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AM14">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AN14">
         <v>87</v>
@@ -3033,13 +3033,13 @@
         <v>84</v>
       </c>
       <c r="AP14">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AQ14">
         <v>188</v>
       </c>
       <c r="AR14">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AS14">
         <v>174</v>
@@ -3054,28 +3054,28 @@
         <v>181</v>
       </c>
       <c r="AW14">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AX14">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AY14">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AZ14">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="BA14">
-        <v>15741</v>
+        <v>21288</v>
       </c>
       <c r="BB14">
         <v>74.95999999999999</v>
       </c>
       <c r="BC14">
-        <v>2473.68</v>
+        <v>1874</v>
       </c>
       <c r="BD14">
-        <v>2473.68</v>
+        <v>1874</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -3098,37 +3098,37 @@
         <v>87</v>
       </c>
       <c r="F15">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="G15">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H15">
         <v>3822</v>
       </c>
       <c r="I15">
-        <v>1726</v>
+        <v>2219</v>
       </c>
       <c r="J15">
-        <v>1899</v>
+        <v>2388</v>
       </c>
       <c r="K15">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>5131</v>
+        <v>5152</v>
       </c>
       <c r="N15">
         <v>134</v>
       </c>
       <c r="O15">
-        <v>1923</v>
+        <v>1434</v>
       </c>
       <c r="P15">
-        <v>21853</v>
+        <v>21256</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3140,115 +3140,115 @@
         <v>1.54945</v>
       </c>
       <c r="T15">
-        <v>3.714285</v>
+        <v>3.76923</v>
       </c>
       <c r="U15">
-        <v>2448</v>
+        <v>2256</v>
       </c>
       <c r="V15">
-        <v>19405</v>
+        <v>19000</v>
       </c>
       <c r="W15">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="X15">
-        <v>740</v>
+        <v>851</v>
       </c>
       <c r="Y15">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="Z15">
         <v>269</v>
       </c>
       <c r="AA15">
-        <v>534</v>
+        <v>363</v>
       </c>
       <c r="AB15">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="AC15">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="AD15">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AE15">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="AF15">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AG15">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AH15">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="AI15">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="AJ15">
         <v>408</v>
       </c>
       <c r="AK15">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL15">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="AM15">
-        <v>5514</v>
+        <v>5309</v>
       </c>
       <c r="AN15">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="AO15">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AP15">
-        <v>1928</v>
+        <v>1913</v>
       </c>
       <c r="AQ15">
         <v>305</v>
       </c>
       <c r="AR15">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AS15">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AT15">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="AU15">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="AV15">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="AW15">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AX15">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="AY15">
-        <v>382</v>
+        <v>584</v>
       </c>
       <c r="AZ15">
-        <v>1955</v>
+        <v>2613</v>
       </c>
       <c r="BA15">
-        <v>205177</v>
+        <v>274234</v>
       </c>
       <c r="BB15">
         <v>104.95</v>
       </c>
       <c r="BC15">
-        <v>21934.55</v>
+        <v>4512.85</v>
       </c>
       <c r="BD15">
-        <v>21934.55</v>
+        <v>4512.85</v>
       </c>
       <c r="BE15">
         <v>0</v>
@@ -3271,37 +3271,37 @@
         <v>93</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16">
         <v>1895</v>
       </c>
       <c r="I16">
-        <v>855</v>
+        <v>1100</v>
       </c>
       <c r="J16">
-        <v>788</v>
+        <v>1054</v>
       </c>
       <c r="K16">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M16">
-        <v>2255</v>
+        <v>2271</v>
       </c>
       <c r="N16">
         <v>119</v>
       </c>
       <c r="O16">
-        <v>1107</v>
+        <v>841</v>
       </c>
       <c r="P16">
-        <v>3828</v>
+        <v>3535</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3313,115 +3313,115 @@
         <v>0.197802</v>
       </c>
       <c r="T16">
-        <v>2.153846</v>
+        <v>2.142857</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>3828</v>
+        <v>3535</v>
       </c>
       <c r="W16">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X16">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y16">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z16">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AA16">
         <v>61</v>
       </c>
       <c r="AB16">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC16">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD16">
         <v>110</v>
       </c>
       <c r="AE16">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AF16">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AG16">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH16">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AI16">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ16">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK16">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AL16">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AM16">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="AN16">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AO16">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AP16">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AQ16">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AR16">
         <v>133</v>
       </c>
       <c r="AS16">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AT16">
         <v>87</v>
       </c>
       <c r="AU16">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AV16">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="AW16">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AX16">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AY16">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="AZ16">
-        <v>749</v>
+        <v>1021</v>
       </c>
       <c r="BA16">
-        <v>168442</v>
+        <v>229612</v>
       </c>
       <c r="BB16">
         <v>224.89</v>
       </c>
       <c r="BC16">
-        <v>20240.1</v>
+        <v>13043.62</v>
       </c>
       <c r="BD16">
-        <v>20240.1</v>
+        <v>13043.62</v>
       </c>
       <c r="BE16">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>90</v>
       </c>
       <c r="F17">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>38</v>
@@ -3453,28 +3453,28 @@
         <v>960</v>
       </c>
       <c r="I17">
-        <v>433</v>
+        <v>557</v>
       </c>
       <c r="J17">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="K17">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="N17">
         <v>125</v>
       </c>
       <c r="O17">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="P17">
-        <v>12184</v>
+        <v>11987</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.120879</v>
+        <v>0.164835</v>
       </c>
       <c r="T17">
         <v>0.010989</v>
@@ -3492,13 +3492,13 @@
         <v>2400</v>
       </c>
       <c r="V17">
-        <v>9784</v>
+        <v>9587</v>
       </c>
       <c r="W17">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X17">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y17">
         <v>181</v>
@@ -3510,55 +3510,55 @@
         <v>112</v>
       </c>
       <c r="AB17">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AC17">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AD17">
         <v>236</v>
       </c>
       <c r="AE17">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AF17">
         <v>205</v>
       </c>
       <c r="AG17">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AH17">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="AI17">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AJ17">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AK17">
         <v>365</v>
       </c>
       <c r="AL17">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AM17">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="AN17">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AO17">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AP17">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AQ17">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="AR17">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AS17">
         <v>135</v>
@@ -3567,10 +3567,10 @@
         <v>208</v>
       </c>
       <c r="AU17">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AV17">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AW17">
         <v>294</v>
@@ -3579,22 +3579,22 @@
         <v>329</v>
       </c>
       <c r="AY17">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="AZ17">
-        <v>653</v>
+        <v>746</v>
       </c>
       <c r="BA17">
-        <v>61186</v>
+        <v>69900</v>
       </c>
       <c r="BB17">
         <v>93.7</v>
       </c>
       <c r="BC17">
-        <v>11712.5</v>
+        <v>1218.1</v>
       </c>
       <c r="BD17">
-        <v>11712.5</v>
+        <v>1218.1</v>
       </c>
       <c r="BE17">
         <v>0</v>
